--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.77467133333334</v>
+        <v>10.23696233333333</v>
       </c>
       <c r="H2">
-        <v>47.32401400000001</v>
+        <v>30.710887</v>
       </c>
       <c r="I2">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011842</v>
       </c>
       <c r="J2">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011841</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N2">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O2">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P2">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q2">
-        <v>148.3856973542591</v>
+        <v>225.3711515483821</v>
       </c>
       <c r="R2">
-        <v>1335.471276188332</v>
+        <v>2028.340363935439</v>
       </c>
       <c r="S2">
-        <v>0.356569056908805</v>
+        <v>0.5076456447087317</v>
       </c>
       <c r="T2">
-        <v>0.356569056908805</v>
+        <v>0.5076456447087317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.77467133333334</v>
+        <v>10.23696233333333</v>
       </c>
       <c r="H3">
-        <v>47.32401400000001</v>
+        <v>30.710887</v>
       </c>
       <c r="I3">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011842</v>
       </c>
       <c r="J3">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.184394</v>
       </c>
       <c r="O3">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P3">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q3">
-        <v>85.10116535972399</v>
+        <v>55.22634392194198</v>
       </c>
       <c r="R3">
-        <v>765.910488237516</v>
+        <v>497.0370952974779</v>
       </c>
       <c r="S3">
-        <v>0.2044970830423911</v>
+        <v>0.1243966353836632</v>
       </c>
       <c r="T3">
-        <v>0.2044970830423911</v>
+        <v>0.1243966353836632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.77467133333334</v>
+        <v>10.23696233333333</v>
       </c>
       <c r="H4">
-        <v>47.32401400000001</v>
+        <v>30.710887</v>
       </c>
       <c r="I4">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011842</v>
       </c>
       <c r="J4">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011841</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N4">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O4">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P4">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q4">
-        <v>1.339416826465778</v>
+        <v>2.832591363878778</v>
       </c>
       <c r="R4">
-        <v>12.054751438192</v>
+        <v>25.493322274909</v>
       </c>
       <c r="S4">
-        <v>0.003218602622330019</v>
+        <v>0.006380375923153288</v>
       </c>
       <c r="T4">
-        <v>0.003218602622330019</v>
+        <v>0.006380375923153288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.77467133333334</v>
+        <v>10.23696233333333</v>
       </c>
       <c r="H5">
-        <v>47.32401400000001</v>
+        <v>30.710887</v>
       </c>
       <c r="I5">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011842</v>
       </c>
       <c r="J5">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011841</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N5">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O5">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P5">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q5">
-        <v>29.91355131519023</v>
+        <v>22.45480417673289</v>
       </c>
       <c r="R5">
-        <v>269.2219618367121</v>
+        <v>202.093237590596</v>
       </c>
       <c r="S5">
-        <v>0.07188190621758984</v>
+        <v>0.05057916004240127</v>
       </c>
       <c r="T5">
-        <v>0.07188190621758983</v>
+        <v>0.05057916004240127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.77467133333334</v>
+        <v>10.23696233333333</v>
       </c>
       <c r="H6">
-        <v>47.32401400000001</v>
+        <v>30.710887</v>
       </c>
       <c r="I6">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011842</v>
       </c>
       <c r="J6">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N6">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O6">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P6">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q6">
-        <v>5.894873738119779</v>
+        <v>6.435230920716332</v>
       </c>
       <c r="R6">
-        <v>53.05386364307801</v>
+        <v>57.91707828644699</v>
       </c>
       <c r="S6">
-        <v>0.01416531112415545</v>
+        <v>0.0144952755805363</v>
       </c>
       <c r="T6">
-        <v>0.01416531112415545</v>
+        <v>0.0144952755805363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.77467133333334</v>
+        <v>10.23696233333333</v>
       </c>
       <c r="H7">
-        <v>47.32401400000001</v>
+        <v>30.710887</v>
       </c>
       <c r="I7">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011842</v>
       </c>
       <c r="J7">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011841</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N7">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O7">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P7">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q7">
-        <v>7.323065156625779</v>
+        <v>5.36665243219289</v>
       </c>
       <c r="R7">
-        <v>65.907586409632</v>
+        <v>48.299871889736</v>
       </c>
       <c r="S7">
-        <v>0.01759723802992819</v>
+        <v>0.01208831616269833</v>
       </c>
       <c r="T7">
-        <v>0.01759723802992819</v>
+        <v>0.01208831616269833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>1.503082</v>
       </c>
       <c r="H8">
-        <v>4.509245999999999</v>
+        <v>4.509246</v>
       </c>
       <c r="I8">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="J8">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N8">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O8">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P8">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q8">
-        <v>14.13886007750533</v>
+        <v>33.09100006245134</v>
       </c>
       <c r="R8">
-        <v>127.249740697548</v>
+        <v>297.819000562062</v>
       </c>
       <c r="S8">
-        <v>0.03397551174737208</v>
+        <v>0.07453705563177872</v>
       </c>
       <c r="T8">
-        <v>0.03397551174737208</v>
+        <v>0.07453705563177873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>1.503082</v>
       </c>
       <c r="H9">
-        <v>4.509245999999999</v>
+        <v>4.509246</v>
       </c>
       <c r="I9">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="J9">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>16.184394</v>
       </c>
       <c r="O9">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P9">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q9">
-        <v>8.108823767435997</v>
+        <v>8.108823767435998</v>
       </c>
       <c r="R9">
-        <v>72.97941390692398</v>
+        <v>72.97941390692399</v>
       </c>
       <c r="S9">
-        <v>0.01948540657858333</v>
+        <v>0.01826502212447468</v>
       </c>
       <c r="T9">
-        <v>0.01948540657858333</v>
+        <v>0.01826502212447468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,43 +1042,43 @@
         <v>1.503082</v>
       </c>
       <c r="H10">
-        <v>4.509245999999999</v>
+        <v>4.509246</v>
       </c>
       <c r="I10">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="J10">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N10">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O10">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P10">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q10">
-        <v>0.1276256905653333</v>
+        <v>0.4159062965913333</v>
       </c>
       <c r="R10">
-        <v>1.148631215088</v>
+        <v>3.743156669322</v>
       </c>
       <c r="S10">
-        <v>0.000306683008764454</v>
+        <v>0.0009368236290269073</v>
       </c>
       <c r="T10">
-        <v>0.000306683008764454</v>
+        <v>0.0009368236290269074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>1.503082</v>
       </c>
       <c r="H11">
-        <v>4.509245999999999</v>
+        <v>4.509246</v>
       </c>
       <c r="I11">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="J11">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N11">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O11">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P11">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q11">
-        <v>2.850298404818667</v>
+        <v>3.297014375218667</v>
       </c>
       <c r="R11">
-        <v>25.652685643368</v>
+        <v>29.673129376968</v>
       </c>
       <c r="S11">
-        <v>0.006849232993719468</v>
+        <v>0.007426482833418579</v>
       </c>
       <c r="T11">
-        <v>0.006849232993719467</v>
+        <v>0.007426482833418579</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>1.503082</v>
       </c>
       <c r="H12">
-        <v>4.509245999999999</v>
+        <v>4.509246</v>
       </c>
       <c r="I12">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="J12">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N12">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O12">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P12">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q12">
-        <v>0.5616902197713333</v>
+        <v>0.9448779284139999</v>
       </c>
       <c r="R12">
-        <v>5.055211977941999</v>
+        <v>8.503901355726001</v>
       </c>
       <c r="S12">
-        <v>0.001349734883548836</v>
+        <v>0.002128325483742328</v>
       </c>
       <c r="T12">
-        <v>0.001349734883548836</v>
+        <v>0.002128325483742328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,43 +1228,43 @@
         <v>1.503082</v>
       </c>
       <c r="H13">
-        <v>4.509245999999999</v>
+        <v>4.509246</v>
       </c>
       <c r="I13">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="J13">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N13">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O13">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P13">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q13">
-        <v>0.6977747548053332</v>
+        <v>0.7879797158986668</v>
       </c>
       <c r="R13">
-        <v>6.279972793247999</v>
+        <v>7.091817443088001</v>
       </c>
       <c r="S13">
-        <v>0.00167674439445271</v>
+        <v>0.001774914260971453</v>
       </c>
       <c r="T13">
-        <v>0.00167674439445271</v>
+        <v>0.001774914260971453</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.782582666666666</v>
+        <v>1.544659666666667</v>
       </c>
       <c r="H14">
-        <v>8.347747999999999</v>
+        <v>4.633979</v>
       </c>
       <c r="I14">
-        <v>0.1178197738317092</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="J14">
-        <v>0.1178197738317093</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N14">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O14">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P14">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q14">
-        <v>26.17458460555822</v>
+        <v>34.00635036952922</v>
       </c>
       <c r="R14">
-        <v>235.571261450024</v>
+        <v>306.057153325763</v>
       </c>
       <c r="S14">
-        <v>0.0628972139107296</v>
+        <v>0.07659887052502666</v>
       </c>
       <c r="T14">
-        <v>0.0628972139107296</v>
+        <v>0.07659887052502666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.782582666666666</v>
+        <v>1.544659666666667</v>
       </c>
       <c r="H15">
-        <v>8.347747999999999</v>
+        <v>4.633979</v>
       </c>
       <c r="I15">
-        <v>0.1178197738317092</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="J15">
-        <v>0.1178197738317093</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>16.184394</v>
       </c>
       <c r="O15">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P15">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q15">
-        <v>15.011471404968</v>
+        <v>8.333126880414</v>
       </c>
       <c r="R15">
-        <v>135.103242644712</v>
+        <v>74.998141923726</v>
       </c>
       <c r="S15">
-        <v>0.03607238633588761</v>
+        <v>0.0187702620259243</v>
       </c>
       <c r="T15">
-        <v>0.03607238633588761</v>
+        <v>0.0187702620259243</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.782582666666666</v>
+        <v>1.544659666666667</v>
       </c>
       <c r="H16">
-        <v>8.347747999999999</v>
+        <v>4.633979</v>
       </c>
       <c r="I16">
-        <v>0.1178197738317092</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="J16">
-        <v>0.1178197738317093</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N16">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O16">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P16">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q16">
-        <v>0.2362672391715555</v>
+        <v>0.4274109339725556</v>
       </c>
       <c r="R16">
-        <v>2.126405152544</v>
+        <v>3.846698405753</v>
       </c>
       <c r="S16">
-        <v>0.0005677473513415444</v>
+        <v>0.0009627376780096893</v>
       </c>
       <c r="T16">
-        <v>0.0005677473513415444</v>
+        <v>0.0009627376780096893</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.782582666666666</v>
+        <v>1.544659666666667</v>
       </c>
       <c r="H17">
-        <v>8.347747999999999</v>
+        <v>4.633979</v>
       </c>
       <c r="I17">
-        <v>0.1178197738317092</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="J17">
-        <v>0.1178197738317093</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N17">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O17">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P17">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q17">
-        <v>5.276618931020445</v>
+        <v>3.388215097925778</v>
       </c>
       <c r="R17">
-        <v>47.489570379184</v>
+        <v>30.493935881332</v>
       </c>
       <c r="S17">
-        <v>0.01267965221344227</v>
+        <v>0.007631911298235269</v>
       </c>
       <c r="T17">
-        <v>0.01267965221344227</v>
+        <v>0.007631911298235269</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.782582666666666</v>
+        <v>1.544659666666667</v>
       </c>
       <c r="H18">
-        <v>8.347747999999999</v>
+        <v>4.633979</v>
       </c>
       <c r="I18">
-        <v>0.1178197738317092</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="J18">
-        <v>0.1178197738317093</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N18">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O18">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P18">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q18">
-        <v>1.039829809399555</v>
+        <v>0.9710147722776666</v>
       </c>
       <c r="R18">
-        <v>9.358468284596</v>
+        <v>8.739132950499</v>
       </c>
       <c r="S18">
-        <v>0.00249869860164538</v>
+        <v>0.002187198391222566</v>
       </c>
       <c r="T18">
-        <v>0.002498698601645381</v>
+        <v>0.002187198391222566</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.782582666666666</v>
+        <v>1.544659666666667</v>
       </c>
       <c r="H19">
-        <v>8.347747999999999</v>
+        <v>4.633979</v>
       </c>
       <c r="I19">
-        <v>0.1178197738317092</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="J19">
-        <v>0.1178197738317093</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N19">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O19">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P19">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q19">
-        <v>1.291756496291556</v>
+        <v>0.8097765027457779</v>
       </c>
       <c r="R19">
-        <v>11.625808466624</v>
+        <v>7.287988524712</v>
       </c>
       <c r="S19">
-        <v>0.003104075418662859</v>
+        <v>0.001824011245370564</v>
       </c>
       <c r="T19">
-        <v>0.003104075418662858</v>
+        <v>0.001824011245370564</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.2551576666666667</v>
+        <v>0.04013633333333334</v>
       </c>
       <c r="H20">
-        <v>0.765473</v>
+        <v>0.120409</v>
       </c>
       <c r="I20">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="J20">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N20">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O20">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P20">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q20">
-        <v>2.400160834008222</v>
+        <v>0.8836187306081111</v>
       </c>
       <c r="R20">
-        <v>21.601447506074</v>
+        <v>7.952568575472999</v>
       </c>
       <c r="S20">
-        <v>0.005767557792100087</v>
+        <v>0.001990339921921946</v>
       </c>
       <c r="T20">
-        <v>0.005767557792100087</v>
+        <v>0.001990339921921946</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.2551576666666667</v>
+        <v>0.04013633333333334</v>
       </c>
       <c r="H21">
-        <v>0.765473</v>
+        <v>0.120409</v>
       </c>
       <c r="I21">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="J21">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>16.184394</v>
       </c>
       <c r="O21">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P21">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q21">
-        <v>1.376524069818</v>
+        <v>0.216527410794</v>
       </c>
       <c r="R21">
-        <v>12.388716628362</v>
+        <v>1.948746697146</v>
       </c>
       <c r="S21">
-        <v>0.003307770884517705</v>
+        <v>0.0004877252314435433</v>
       </c>
       <c r="T21">
-        <v>0.003307770884517705</v>
+        <v>0.0004877252314435433</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.2551576666666667</v>
+        <v>0.04013633333333334</v>
       </c>
       <c r="H22">
-        <v>0.765473</v>
+        <v>0.120409</v>
       </c>
       <c r="I22">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="J22">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N22">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O22">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P22">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q22">
-        <v>0.02166526737155556</v>
+        <v>0.01110581708477778</v>
       </c>
       <c r="R22">
-        <v>0.194987406344</v>
+        <v>0.099952353763</v>
       </c>
       <c r="S22">
-        <v>5.206137850273702E-05</v>
+        <v>2.50157113511884E-05</v>
       </c>
       <c r="T22">
-        <v>5.206137850273702E-05</v>
+        <v>2.50157113511884E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.2551576666666667</v>
+        <v>0.04013633333333334</v>
       </c>
       <c r="H23">
-        <v>0.765473</v>
+        <v>0.120409</v>
       </c>
       <c r="I23">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="J23">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N23">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O23">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P23">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q23">
-        <v>0.4838561637204445</v>
+        <v>0.0880391541968889</v>
       </c>
       <c r="R23">
-        <v>4.354705473484</v>
+        <v>0.792352387772</v>
       </c>
       <c r="S23">
-        <v>0.00116270057730304</v>
+        <v>0.0001983070720668373</v>
       </c>
       <c r="T23">
-        <v>0.00116270057730304</v>
+        <v>0.0001983070720668373</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.2551576666666667</v>
+        <v>0.04013633333333334</v>
       </c>
       <c r="H24">
-        <v>0.765473</v>
+        <v>0.120409</v>
       </c>
       <c r="I24">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="J24">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N24">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O24">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P24">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q24">
-        <v>0.09535046382455556</v>
+        <v>0.02523078281433333</v>
       </c>
       <c r="R24">
-        <v>0.8581541744210001</v>
+        <v>0.227077045329</v>
       </c>
       <c r="S24">
-        <v>0.0002291260247311364</v>
+        <v>5.683201652159364E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002291260247311364</v>
+        <v>5.683201652159364E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.2551576666666667</v>
+        <v>0.04013633333333334</v>
       </c>
       <c r="H25">
-        <v>0.765473</v>
+        <v>0.120409</v>
       </c>
       <c r="I25">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="J25">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N25">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O25">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P25">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q25">
-        <v>0.1184516734915556</v>
+        <v>0.02104117841688889</v>
       </c>
       <c r="R25">
-        <v>1.066065061424</v>
+        <v>0.189370605752</v>
       </c>
       <c r="S25">
-        <v>0.0002846379554042736</v>
+        <v>4.739498604629504E-05</v>
       </c>
       <c r="T25">
-        <v>0.0002846379554042736</v>
+        <v>4.739498604629504E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3953666666666667</v>
+        <v>0.5501683333333333</v>
       </c>
       <c r="H26">
-        <v>1.1861</v>
+        <v>1.650505</v>
       </c>
       <c r="I26">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="J26">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N26">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O26">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P26">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q26">
-        <v>3.719047915755556</v>
+        <v>12.11219371444278</v>
       </c>
       <c r="R26">
-        <v>33.4714312418</v>
+        <v>109.009743429985</v>
       </c>
       <c r="S26">
-        <v>0.008936827683288521</v>
+        <v>0.02728256187520683</v>
       </c>
       <c r="T26">
-        <v>0.008936827683288523</v>
+        <v>0.02728256187520684</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3953666666666667</v>
+        <v>0.5501683333333333</v>
       </c>
       <c r="H27">
-        <v>1.1861</v>
+        <v>1.650505</v>
       </c>
       <c r="I27">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="J27">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>16.184394</v>
       </c>
       <c r="O27">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P27">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q27">
-        <v>2.1329233026</v>
+        <v>2.968047024329999</v>
       </c>
       <c r="R27">
-        <v>19.1963097234</v>
+        <v>26.71242321897</v>
       </c>
       <c r="S27">
-        <v>0.005125389198739145</v>
+        <v>0.006685488070856209</v>
       </c>
       <c r="T27">
-        <v>0.005125389198739147</v>
+        <v>0.00668548807085621</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3953666666666667</v>
+        <v>0.5501683333333333</v>
       </c>
       <c r="H28">
-        <v>1.1861</v>
+        <v>1.650505</v>
       </c>
       <c r="I28">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="J28">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N28">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O28">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P28">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q28">
-        <v>0.03357032008888889</v>
+        <v>0.1522328615594444</v>
       </c>
       <c r="R28">
-        <v>0.3021328808000001</v>
+        <v>1.370095754035</v>
       </c>
       <c r="S28">
-        <v>8.066907786701345E-05</v>
+        <v>0.0003429025792398675</v>
       </c>
       <c r="T28">
-        <v>8.066907786701347E-05</v>
+        <v>0.0003429025792398675</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3953666666666667</v>
+        <v>0.5501683333333333</v>
       </c>
       <c r="H29">
-        <v>1.1861</v>
+        <v>1.650505</v>
       </c>
       <c r="I29">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="J29">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N29">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O29">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P29">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q29">
-        <v>0.7497348643111112</v>
+        <v>1.206795706282222</v>
       </c>
       <c r="R29">
-        <v>6.747613778800002</v>
+        <v>10.86116135654</v>
       </c>
       <c r="S29">
-        <v>0.001801603916453141</v>
+        <v>0.002718291938158071</v>
       </c>
       <c r="T29">
-        <v>0.001801603916453142</v>
+        <v>0.002718291938158071</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3953666666666667</v>
+        <v>0.5501683333333333</v>
       </c>
       <c r="H30">
-        <v>1.1861</v>
+        <v>1.650505</v>
       </c>
       <c r="I30">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="J30">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N30">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O30">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P30">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q30">
-        <v>0.1477454921888889</v>
+        <v>0.3458506688783333</v>
       </c>
       <c r="R30">
-        <v>1.3297094297</v>
+        <v>3.112656019905</v>
       </c>
       <c r="S30">
-        <v>0.000355030651549566</v>
+        <v>0.0007790242210214592</v>
       </c>
       <c r="T30">
-        <v>0.000355030651549566</v>
+        <v>0.0007790242210214594</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3953666666666667</v>
+        <v>0.5501683333333333</v>
       </c>
       <c r="H31">
-        <v>1.1861</v>
+        <v>1.650505</v>
       </c>
       <c r="I31">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="J31">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N31">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O31">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P31">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q31">
-        <v>0.1835408040888889</v>
+        <v>0.2884217141822222</v>
       </c>
       <c r="R31">
-        <v>1.6518672368</v>
+        <v>2.59579542764</v>
       </c>
       <c r="S31">
-        <v>0.0004410463581406646</v>
+        <v>0.0006496662329588333</v>
       </c>
       <c r="T31">
-        <v>0.0004410463581406647</v>
+        <v>0.0006496662329588336</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>2.906420333333333</v>
+        <v>0.4307083333333333</v>
       </c>
       <c r="H32">
-        <v>8.719260999999999</v>
+        <v>1.292125</v>
       </c>
       <c r="I32">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="J32">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.406579333333333</v>
+        <v>22.01543233333333</v>
       </c>
       <c r="N32">
-        <v>28.219738</v>
+        <v>66.046297</v>
       </c>
       <c r="O32">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891664</v>
       </c>
       <c r="P32">
-        <v>0.5338425959005011</v>
+        <v>0.7094130751891665</v>
       </c>
       <c r="Q32">
-        <v>27.33947344151311</v>
+        <v>9.482230167902777</v>
       </c>
       <c r="R32">
-        <v>246.055260973618</v>
+        <v>85.34007151112499</v>
       </c>
       <c r="S32">
-        <v>0.06569642785820583</v>
+        <v>0.02135860252650046</v>
       </c>
       <c r="T32">
-        <v>0.06569642785820584</v>
+        <v>0.02135860252650046</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>2.906420333333333</v>
+        <v>0.4307083333333333</v>
       </c>
       <c r="H33">
-        <v>8.719260999999999</v>
+        <v>1.292125</v>
       </c>
       <c r="I33">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="J33">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>16.184394</v>
       </c>
       <c r="O33">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="P33">
-        <v>0.3061658086987375</v>
+        <v>0.1738389771891843</v>
       </c>
       <c r="Q33">
-        <v>15.679550601426</v>
+        <v>2.323584455249999</v>
       </c>
       <c r="R33">
-        <v>141.115955412834</v>
+        <v>20.91226009724999</v>
       </c>
       <c r="S33">
-        <v>0.03767777265861856</v>
+        <v>0.005233844352822366</v>
       </c>
       <c r="T33">
-        <v>0.03767777265861856</v>
+        <v>0.005233844352822366</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>2.906420333333333</v>
+        <v>0.4307083333333333</v>
       </c>
       <c r="H34">
-        <v>8.719260999999999</v>
+        <v>1.292125</v>
       </c>
       <c r="I34">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="J34">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.08490933333333334</v>
+        <v>0.2767023333333333</v>
       </c>
       <c r="N34">
-        <v>0.254728</v>
+        <v>0.830107</v>
       </c>
       <c r="O34">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751967</v>
       </c>
       <c r="P34">
-        <v>0.004818778146294018</v>
+        <v>0.008916302447751968</v>
       </c>
       <c r="Q34">
-        <v>0.2467822128897778</v>
+        <v>0.1191780008194444</v>
       </c>
       <c r="R34">
-        <v>2.221039916008</v>
+        <v>1.072602007375</v>
       </c>
       <c r="S34">
-        <v>0.0005930147074882502</v>
+        <v>0.0002684469269710263</v>
       </c>
       <c r="T34">
-        <v>0.0005930147074882502</v>
+        <v>0.0002684469269710263</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>2.906420333333333</v>
+        <v>0.4307083333333333</v>
       </c>
       <c r="H35">
-        <v>8.719260999999999</v>
+        <v>1.292125</v>
       </c>
       <c r="I35">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="J35">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.896302666666667</v>
+        <v>2.193502666666667</v>
       </c>
       <c r="N35">
-        <v>5.688908000000001</v>
+        <v>6.580508</v>
       </c>
       <c r="O35">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034463</v>
       </c>
       <c r="P35">
-        <v>0.1076190506998728</v>
+        <v>0.07068221276034464</v>
       </c>
       <c r="Q35">
-        <v>5.511452628554222</v>
+        <v>0.9447598777222223</v>
       </c>
       <c r="R35">
-        <v>49.603073656988</v>
+        <v>8.5028388995</v>
       </c>
       <c r="S35">
-        <v>0.01324395478136509</v>
+        <v>0.002128059576064597</v>
       </c>
       <c r="T35">
-        <v>0.01324395478136509</v>
+        <v>0.002128059576064597</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>2.906420333333333</v>
+        <v>0.4307083333333333</v>
       </c>
       <c r="H36">
-        <v>8.719260999999999</v>
+        <v>1.292125</v>
       </c>
       <c r="I36">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="J36">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.3736923333333333</v>
+        <v>0.6286269999999999</v>
       </c>
       <c r="N36">
-        <v>1.121077</v>
+        <v>1.885881</v>
       </c>
       <c r="O36">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411222</v>
       </c>
       <c r="P36">
-        <v>0.02120780341349541</v>
+        <v>0.02025652762411223</v>
       </c>
       <c r="Q36">
-        <v>1.086106996010778</v>
+        <v>0.2707548874583333</v>
       </c>
       <c r="R36">
-        <v>9.774962964097</v>
+        <v>2.436793987125</v>
       </c>
       <c r="S36">
-        <v>0.002609902127865037</v>
+        <v>0.000609871931067978</v>
       </c>
       <c r="T36">
-        <v>0.002609902127865037</v>
+        <v>0.0006098719310679781</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>2.906420333333333</v>
+        <v>0.4307083333333333</v>
       </c>
       <c r="H37">
-        <v>8.719260999999999</v>
+        <v>1.292125</v>
       </c>
       <c r="I37">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="J37">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4642293333333333</v>
+        <v>0.5242426666666667</v>
       </c>
       <c r="N37">
-        <v>1.392688</v>
+        <v>1.572728</v>
       </c>
       <c r="O37">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944046</v>
       </c>
       <c r="P37">
-        <v>0.02634596314109922</v>
+        <v>0.01689290478944047</v>
       </c>
       <c r="Q37">
-        <v>1.349245573729778</v>
+        <v>0.2257956852222222</v>
       </c>
       <c r="R37">
-        <v>12.143210163568</v>
+        <v>2.032161167</v>
       </c>
       <c r="S37">
-        <v>0.003242220984510521</v>
+        <v>0.0005086019013949868</v>
       </c>
       <c r="T37">
-        <v>0.003242220984510521</v>
+        <v>0.0005086019013949869</v>
       </c>
     </row>
   </sheetData>
